--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,25 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iratxe\OneDrive\PhD_OBJ2_4\RESULTS\github_scripts_paper3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irubio010\OneDrive - Mareira Bizi\P3\github_scripts_paper3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12270"/>
+    <workbookView xWindow="2150" yWindow="2150" windowWidth="16200" windowHeight="9980"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="14" r:id="rId1"/>
-    <sheet name="best_adaptations" sheetId="16" r:id="rId2"/>
-    <sheet name="ID_action" sheetId="18" r:id="rId3"/>
+    <sheet name="ID_action" sheetId="18" r:id="rId2"/>
+    <sheet name="best_adaptations" sheetId="16" r:id="rId3"/>
     <sheet name="cultural_value" sheetId="20" r:id="rId4"/>
     <sheet name="changes" sheetId="19" r:id="rId5"/>
+    <sheet name="adaptation_actions_present" sheetId="21" r:id="rId6"/>
+    <sheet name="adaptation_actions_past" sheetId="23" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">best_adaptations!$A$1:$C$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">best_adaptations!$A$1:$C$469</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">changes!$A$1:$D$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ID!$A$1:$B$24</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +33,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -208,64 +216,307 @@
     <t>Finantial support to promote sustainable fishing practices</t>
   </si>
   <si>
-    <t>Research on migration, growth, etc. of tropical tunas, improving scientific knowledge (on fisheries, climate change, sustainability…)</t>
+    <t>stock_abundance</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>stock_distribution</t>
+  </si>
+  <si>
+    <t>N/S</t>
+  </si>
+  <si>
+    <t>weather_risks</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>variability</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CV_component</t>
+  </si>
+  <si>
+    <t>CV_value</t>
+  </si>
+  <si>
+    <t>change_component</t>
+  </si>
+  <si>
+    <t>change_value</t>
+  </si>
+  <si>
+    <t>change_CC</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>5_2_A1</t>
+  </si>
+  <si>
+    <t>5_2_A2</t>
+  </si>
+  <si>
+    <t>5_2_A3</t>
+  </si>
+  <si>
+    <t>5_2_A4</t>
+  </si>
+  <si>
+    <t>5_2_A6</t>
+  </si>
+  <si>
+    <t>5_2_A7</t>
+  </si>
+  <si>
+    <t>5_2_A8</t>
+  </si>
+  <si>
+    <t>5_2_A9</t>
+  </si>
+  <si>
+    <t>5_2_A10</t>
+  </si>
+  <si>
+    <t>5_2_A11</t>
+  </si>
+  <si>
+    <t>5_2_A12</t>
+  </si>
+  <si>
+    <t>5_2_A13</t>
+  </si>
+  <si>
+    <t>5_2_A14</t>
+  </si>
+  <si>
+    <t>5_2_A15</t>
+  </si>
+  <si>
+    <t>5_2_A16</t>
+  </si>
+  <si>
+    <t>5_2_A17</t>
+  </si>
+  <si>
+    <t>5_2_A18</t>
+  </si>
+  <si>
+    <t>5_2_A19</t>
+  </si>
+  <si>
+    <t>5_2_A20</t>
+  </si>
+  <si>
+    <t>5_2_A21</t>
+  </si>
+  <si>
+    <t>5_2_A22</t>
+  </si>
+  <si>
+    <t>5_2_A23</t>
+  </si>
+  <si>
+    <t>5_2_A24</t>
+  </si>
+  <si>
+    <t>5_2_A25</t>
+  </si>
+  <si>
+    <t>5_2_A26</t>
+  </si>
+  <si>
+    <t>5_2_A27</t>
+  </si>
+  <si>
+    <t>5_2_A28</t>
+  </si>
+  <si>
+    <t>5_2_A29</t>
+  </si>
+  <si>
+    <t>5_2_A30</t>
+  </si>
+  <si>
+    <t>5_2_A31</t>
+  </si>
+  <si>
+    <t>5_2_A32</t>
+  </si>
+  <si>
+    <t>5_2_A33</t>
+  </si>
+  <si>
+    <t>5_2_A34</t>
+  </si>
+  <si>
+    <t>5_2_A35</t>
+  </si>
+  <si>
+    <t>5_2_A36</t>
+  </si>
+  <si>
+    <t>5_2_O1</t>
+  </si>
+  <si>
+    <t>5_2_O2</t>
+  </si>
+  <si>
+    <t>5_2_O4</t>
+  </si>
+  <si>
+    <t>5_2_O5</t>
+  </si>
+  <si>
+    <t>5_3_A1</t>
+  </si>
+  <si>
+    <t>5_3_A2</t>
+  </si>
+  <si>
+    <t>5_3_A3</t>
+  </si>
+  <si>
+    <t>5_3_A4</t>
+  </si>
+  <si>
+    <t>5_3_A5</t>
+  </si>
+  <si>
+    <t>5_3_A6</t>
+  </si>
+  <si>
+    <t>5_3_A7</t>
+  </si>
+  <si>
+    <t>5_3_A8</t>
+  </si>
+  <si>
+    <t>5_3_A9</t>
+  </si>
+  <si>
+    <t>5_3_A10</t>
+  </si>
+  <si>
+    <t>5_3_A11</t>
+  </si>
+  <si>
+    <t>5_3_A12</t>
+  </si>
+  <si>
+    <t>5_3_A13</t>
+  </si>
+  <si>
+    <t>5_3_A14</t>
+  </si>
+  <si>
+    <t>5_3_A15</t>
+  </si>
+  <si>
+    <t>5_3_A16</t>
+  </si>
+  <si>
+    <t>5_3_A17</t>
+  </si>
+  <si>
+    <t>5_3_A18</t>
+  </si>
+  <si>
+    <t>5_3_A19</t>
+  </si>
+  <si>
+    <t>5_3_A20</t>
+  </si>
+  <si>
+    <t>5_3_A21</t>
+  </si>
+  <si>
+    <t>5_3_A22</t>
+  </si>
+  <si>
+    <t>5_3_A23</t>
+  </si>
+  <si>
+    <t>5_3_A24</t>
+  </si>
+  <si>
+    <t>5_3_A25</t>
+  </si>
+  <si>
+    <t>5_3_A26</t>
+  </si>
+  <si>
+    <t>5_3_A27</t>
+  </si>
+  <si>
+    <t>5_3_A28</t>
+  </si>
+  <si>
+    <t>5_3_A29</t>
+  </si>
+  <si>
+    <t>5_3_A30</t>
+  </si>
+  <si>
+    <t>5_3_A31</t>
+  </si>
+  <si>
+    <t>5_3_A32</t>
+  </si>
+  <si>
+    <t>5_3_A33</t>
+  </si>
+  <si>
+    <t>5_3_A34</t>
+  </si>
+  <si>
+    <t>5_3_A35</t>
+  </si>
+  <si>
+    <t>5_3_A36</t>
+  </si>
+  <si>
+    <t>5_3_O1</t>
+  </si>
+  <si>
+    <t>5_3_O2</t>
+  </si>
+  <si>
+    <t>code_5_2</t>
+  </si>
+  <si>
+    <t>code_5_3</t>
+  </si>
+  <si>
+    <t>Improving RFMO management</t>
   </si>
   <si>
     <t>Searching for new ports (or helping to search)</t>
   </si>
   <si>
-    <t>Improving RFMO management</t>
-  </si>
-  <si>
-    <t>stock_abundance</t>
-  </si>
-  <si>
-    <t>decrease</t>
-  </si>
-  <si>
-    <t>stock_distribution</t>
-  </si>
-  <si>
-    <t>N/S</t>
-  </si>
-  <si>
-    <t>weather_risks</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>variability</t>
-  </si>
-  <si>
-    <t>DN</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>CV_component</t>
-  </si>
-  <si>
-    <t>CV_value</t>
-  </si>
-  <si>
-    <t>change_component</t>
-  </si>
-  <si>
-    <t>change_value</t>
-  </si>
-  <si>
-    <t>change_CC</t>
-  </si>
-  <si>
-    <t>Research</t>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Improve scientific knowledge on fisheries, climate change, sustainability, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish more quantities of other species </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,15 +566,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -332,26 +580,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,15 +876,15 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,189 +892,149 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B24"/>
@@ -845,20 +1044,684 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,7 +1732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -880,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -891,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -902,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -913,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -924,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -935,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -946,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -957,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -968,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -979,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -990,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1001,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1012,7 +1875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1023,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1034,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1045,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1056,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1067,7 +1930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1078,7 +1941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1089,7 +1952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1100,7 +1963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1111,7 +1974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1122,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1133,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1144,7 +2007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1155,7 +2018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1166,7 +2029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1177,7 +2040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1188,7 +2051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1199,7 +2062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1210,7 +2073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1221,7 +2084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1232,7 +2095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1243,7 +2106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1254,7 +2117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1265,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1276,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1287,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1298,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -1309,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -1320,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -1331,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -1342,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -1353,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -1364,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -1375,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -1386,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -1397,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -1408,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -1419,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -1430,7 +2293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -1441,7 +2304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -1452,7 +2315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -1463,7 +2326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -1474,7 +2337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -1485,7 +2348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -1496,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -1507,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -1518,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -1529,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -1540,7 +2403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -1551,7 +2414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -1562,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -1573,7 +2436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -1584,7 +2447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -1595,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -1606,7 +2469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -1617,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -1628,7 +2491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -1639,7 +2502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -1650,7 +2513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -1661,7 +2524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -1672,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -1683,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -1694,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -1705,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -1716,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>3</v>
       </c>
@@ -1727,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -1738,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>3</v>
       </c>
@@ -1749,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -1760,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>3</v>
       </c>
@@ -1771,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>3</v>
       </c>
@@ -1782,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -1793,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -1804,7 +2667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>3</v>
       </c>
@@ -1815,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>3</v>
       </c>
@@ -1826,7 +2689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>3</v>
       </c>
@@ -1837,7 +2700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>3</v>
       </c>
@@ -1848,7 +2711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>3</v>
       </c>
@@ -1859,7 +2722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -1870,7 +2733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -1881,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>3</v>
       </c>
@@ -1892,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -1903,7 +2766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -1914,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>3</v>
       </c>
@@ -1925,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>3</v>
       </c>
@@ -1936,7 +2799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>3</v>
       </c>
@@ -1947,7 +2810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -1958,7 +2821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>3</v>
       </c>
@@ -1969,7 +2832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -1980,7 +2843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>3</v>
       </c>
@@ -1991,7 +2854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>3</v>
       </c>
@@ -2002,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>3</v>
       </c>
@@ -2013,7 +2876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>3</v>
       </c>
@@ -2024,7 +2887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -2035,7 +2898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>3</v>
       </c>
@@ -2046,7 +2909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>3</v>
       </c>
@@ -2057,7 +2920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>4</v>
       </c>
@@ -2068,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>4</v>
       </c>
@@ -2079,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>4</v>
       </c>
@@ -2090,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>4</v>
       </c>
@@ -2101,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>4</v>
       </c>
@@ -2112,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>4</v>
       </c>
@@ -2123,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>4</v>
       </c>
@@ -2134,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>4</v>
       </c>
@@ -2145,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>4</v>
       </c>
@@ -2156,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>4</v>
       </c>
@@ -2167,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>4</v>
       </c>
@@ -2178,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>4</v>
       </c>
@@ -2189,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>4</v>
       </c>
@@ -2200,7 +3063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>4</v>
       </c>
@@ -2211,7 +3074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>4</v>
       </c>
@@ -2222,7 +3085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>4</v>
       </c>
@@ -2233,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>4</v>
       </c>
@@ -2244,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>4</v>
       </c>
@@ -2255,7 +3118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>4</v>
       </c>
@@ -2266,7 +3129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>4</v>
       </c>
@@ -2277,7 +3140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>4</v>
       </c>
@@ -2288,7 +3151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>4</v>
       </c>
@@ -2299,7 +3162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>4</v>
       </c>
@@ -2310,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>4</v>
       </c>
@@ -2321,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>4</v>
       </c>
@@ -2332,7 +3195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>4</v>
       </c>
@@ -2343,7 +3206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>4</v>
       </c>
@@ -2354,7 +3217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>4</v>
       </c>
@@ -2365,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>4</v>
       </c>
@@ -2376,7 +3239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>4</v>
       </c>
@@ -2387,7 +3250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>4</v>
       </c>
@@ -2398,7 +3261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>4</v>
       </c>
@@ -2409,7 +3272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>4</v>
       </c>
@@ -2420,7 +3283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>4</v>
       </c>
@@ -2431,7 +3294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>4</v>
       </c>
@@ -2442,7 +3305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>4</v>
       </c>
@@ -2453,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>5</v>
       </c>
@@ -2464,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>5</v>
       </c>
@@ -2475,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>5</v>
       </c>
@@ -2486,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>5</v>
       </c>
@@ -2497,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>5</v>
       </c>
@@ -2508,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>5</v>
       </c>
@@ -2519,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>5</v>
       </c>
@@ -2530,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>5</v>
       </c>
@@ -2541,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>5</v>
       </c>
@@ -2552,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>5</v>
       </c>
@@ -2563,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>5</v>
       </c>
@@ -2574,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>5</v>
       </c>
@@ -2585,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>5</v>
       </c>
@@ -2596,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>5</v>
       </c>
@@ -2607,7 +3470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>5</v>
       </c>
@@ -2618,7 +3481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>5</v>
       </c>
@@ -2629,7 +3492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>5</v>
       </c>
@@ -2640,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>5</v>
       </c>
@@ -2651,7 +3514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>5</v>
       </c>
@@ -2662,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>5</v>
       </c>
@@ -2673,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>5</v>
       </c>
@@ -2684,7 +3547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>5</v>
       </c>
@@ -2695,7 +3558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>5</v>
       </c>
@@ -2706,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>5</v>
       </c>
@@ -2717,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>5</v>
       </c>
@@ -2728,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>5</v>
       </c>
@@ -2739,7 +3602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>5</v>
       </c>
@@ -2750,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>5</v>
       </c>
@@ -2761,7 +3624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>5</v>
       </c>
@@ -2772,7 +3635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>5</v>
       </c>
@@ -2783,7 +3646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>5</v>
       </c>
@@ -2794,7 +3657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>5</v>
       </c>
@@ -2805,7 +3668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>5</v>
       </c>
@@ -2816,7 +3679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>5</v>
       </c>
@@ -2827,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>5</v>
       </c>
@@ -2838,7 +3701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>5</v>
       </c>
@@ -2849,7 +3712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>6</v>
       </c>
@@ -2860,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>6</v>
       </c>
@@ -2871,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>6</v>
       </c>
@@ -2882,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>6</v>
       </c>
@@ -2893,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>6</v>
       </c>
@@ -2904,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>6</v>
       </c>
@@ -2915,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>6</v>
       </c>
@@ -2926,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>6</v>
       </c>
@@ -2937,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>6</v>
       </c>
@@ -2948,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>6</v>
       </c>
@@ -2959,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>6</v>
       </c>
@@ -2970,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>6</v>
       </c>
@@ -2981,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>6</v>
       </c>
@@ -2992,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>6</v>
       </c>
@@ -3003,7 +3866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>6</v>
       </c>
@@ -3014,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>6</v>
       </c>
@@ -3025,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>6</v>
       </c>
@@ -3036,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>6</v>
       </c>
@@ -3047,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>6</v>
       </c>
@@ -3058,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>6</v>
       </c>
@@ -3069,7 +3932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>6</v>
       </c>
@@ -3080,7 +3943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>6</v>
       </c>
@@ -3091,7 +3954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>6</v>
       </c>
@@ -3102,7 +3965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>6</v>
       </c>
@@ -3113,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>6</v>
       </c>
@@ -3124,7 +3987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>6</v>
       </c>
@@ -3135,7 +3998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>6</v>
       </c>
@@ -3146,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>6</v>
       </c>
@@ -3157,7 +4020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>6</v>
       </c>
@@ -3168,7 +4031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>6</v>
       </c>
@@ -3179,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>6</v>
       </c>
@@ -3190,7 +4053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>6</v>
       </c>
@@ -3201,7 +4064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>6</v>
       </c>
@@ -3212,7 +4075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>6</v>
       </c>
@@ -3223,7 +4086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>6</v>
       </c>
@@ -3234,7 +4097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>6</v>
       </c>
@@ -3245,7 +4108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>7</v>
       </c>
@@ -3256,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>7</v>
       </c>
@@ -3267,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>7</v>
       </c>
@@ -3278,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>7</v>
       </c>
@@ -3289,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>7</v>
       </c>
@@ -3300,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>7</v>
       </c>
@@ -3311,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>7</v>
       </c>
@@ -3322,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>7</v>
       </c>
@@ -3333,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -3344,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>7</v>
       </c>
@@ -3355,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>7</v>
       </c>
@@ -3366,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>7</v>
       </c>
@@ -3377,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>7</v>
       </c>
@@ -3388,7 +4251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>7</v>
       </c>
@@ -3399,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>7</v>
       </c>
@@ -3410,7 +4273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>7</v>
       </c>
@@ -3421,7 +4284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>7</v>
       </c>
@@ -3432,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>7</v>
       </c>
@@ -3443,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>7</v>
       </c>
@@ -3454,7 +4317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>7</v>
       </c>
@@ -3465,7 +4328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>7</v>
       </c>
@@ -3476,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>7</v>
       </c>
@@ -3487,7 +4350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>7</v>
       </c>
@@ -3498,7 +4361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>7</v>
       </c>
@@ -3509,7 +4372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>7</v>
       </c>
@@ -3520,7 +4383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>7</v>
       </c>
@@ -3531,7 +4394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>7</v>
       </c>
@@ -3542,7 +4405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>7</v>
       </c>
@@ -3553,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>7</v>
       </c>
@@ -3564,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>7</v>
       </c>
@@ -3575,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>7</v>
       </c>
@@ -3586,7 +4449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>7</v>
       </c>
@@ -3597,7 +4460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>7</v>
       </c>
@@ -3608,7 +4471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>7</v>
       </c>
@@ -3619,7 +4482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>7</v>
       </c>
@@ -3630,7 +4493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>7</v>
       </c>
@@ -3641,7 +4504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>8</v>
       </c>
@@ -3652,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>8</v>
       </c>
@@ -3663,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>8</v>
       </c>
@@ -3674,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>8</v>
       </c>
@@ -3685,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>8</v>
       </c>
@@ -3696,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>8</v>
       </c>
@@ -3707,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>8</v>
       </c>
@@ -3718,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>8</v>
       </c>
@@ -3729,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>8</v>
       </c>
@@ -3740,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -3751,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>8</v>
       </c>
@@ -3762,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>8</v>
       </c>
@@ -3773,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>8</v>
       </c>
@@ -3784,7 +4647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>8</v>
       </c>
@@ -3795,7 +4658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>8</v>
       </c>
@@ -3806,7 +4669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>8</v>
       </c>
@@ -3817,7 +4680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>8</v>
       </c>
@@ -3828,7 +4691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>8</v>
       </c>
@@ -3839,7 +4702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>8</v>
       </c>
@@ -3850,7 +4713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>8</v>
       </c>
@@ -3861,7 +4724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>8</v>
       </c>
@@ -3872,7 +4735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>8</v>
       </c>
@@ -3883,7 +4746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>8</v>
       </c>
@@ -3894,7 +4757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>8</v>
       </c>
@@ -3905,7 +4768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>8</v>
       </c>
@@ -3916,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>8</v>
       </c>
@@ -3927,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>8</v>
       </c>
@@ -3938,7 +4801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>8</v>
       </c>
@@ -3949,7 +4812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>8</v>
       </c>
@@ -3960,7 +4823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>8</v>
       </c>
@@ -3971,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>8</v>
       </c>
@@ -3982,7 +4845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>8</v>
       </c>
@@ -3993,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>8</v>
       </c>
@@ -4004,7 +4867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>8</v>
       </c>
@@ -4015,7 +4878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>8</v>
       </c>
@@ -4026,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>8</v>
       </c>
@@ -4037,7 +4900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>9</v>
       </c>
@@ -4048,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>9</v>
       </c>
@@ -4059,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>9</v>
       </c>
@@ -4070,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>9</v>
       </c>
@@ -4081,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>9</v>
       </c>
@@ -4092,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>9</v>
       </c>
@@ -4103,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>9</v>
       </c>
@@ -4114,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>9</v>
       </c>
@@ -4125,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>9</v>
       </c>
@@ -4136,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>9</v>
       </c>
@@ -4147,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>9</v>
       </c>
@@ -4158,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>9</v>
       </c>
@@ -4169,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>9</v>
       </c>
@@ -4180,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>9</v>
       </c>
@@ -4191,7 +5054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>9</v>
       </c>
@@ -4202,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>9</v>
       </c>
@@ -4213,7 +5076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>9</v>
       </c>
@@ -4224,7 +5087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>9</v>
       </c>
@@ -4235,7 +5098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>9</v>
       </c>
@@ -4246,7 +5109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>9</v>
       </c>
@@ -4257,7 +5120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>9</v>
       </c>
@@ -4268,7 +5131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>9</v>
       </c>
@@ -4279,7 +5142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>9</v>
       </c>
@@ -4290,7 +5153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>9</v>
       </c>
@@ -4301,139 +5164,139 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>9</v>
       </c>
-      <c r="B314" s="4">
+      <c r="B314" s="3">
         <v>25</v>
       </c>
       <c r="C314" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>9</v>
       </c>
-      <c r="B315" s="4">
+      <c r="B315" s="3">
         <v>25</v>
       </c>
       <c r="C315" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>9</v>
       </c>
-      <c r="B316" s="4">
+      <c r="B316" s="3">
         <v>25</v>
       </c>
       <c r="C316" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>9</v>
       </c>
-      <c r="B317" s="4">
+      <c r="B317" s="3">
         <v>25</v>
       </c>
       <c r="C317" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>9</v>
       </c>
-      <c r="B318" s="4">
+      <c r="B318" s="3">
         <v>25</v>
       </c>
       <c r="C318" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>9</v>
       </c>
-      <c r="B319" s="4">
+      <c r="B319" s="3">
         <v>25</v>
       </c>
       <c r="C319" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>9</v>
       </c>
-      <c r="B320" s="4">
+      <c r="B320" s="3">
         <v>25</v>
       </c>
       <c r="C320" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>9</v>
       </c>
-      <c r="B321" s="4">
+      <c r="B321" s="3">
         <v>25</v>
       </c>
       <c r="C321" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>9</v>
       </c>
-      <c r="B322" s="4">
+      <c r="B322" s="3">
         <v>25</v>
       </c>
       <c r="C322" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>9</v>
       </c>
-      <c r="B323" s="4">
+      <c r="B323" s="3">
         <v>25</v>
       </c>
       <c r="C323" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>9</v>
       </c>
-      <c r="B324" s="4">
+      <c r="B324" s="3">
         <v>25</v>
       </c>
       <c r="C324" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>9</v>
       </c>
-      <c r="B325" s="4">
+      <c r="B325" s="3">
         <v>25</v>
       </c>
       <c r="C325" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>10</v>
       </c>
@@ -4444,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>10</v>
       </c>
@@ -4455,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>10</v>
       </c>
@@ -4466,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>10</v>
       </c>
@@ -4477,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>10</v>
       </c>
@@ -4488,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>10</v>
       </c>
@@ -4499,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>10</v>
       </c>
@@ -4510,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>10</v>
       </c>
@@ -4521,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>10</v>
       </c>
@@ -4532,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>10</v>
       </c>
@@ -4543,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>10</v>
       </c>
@@ -4554,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>10</v>
       </c>
@@ -4565,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>10</v>
       </c>
@@ -4576,7 +5439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>10</v>
       </c>
@@ -4587,7 +5450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>10</v>
       </c>
@@ -4598,7 +5461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>10</v>
       </c>
@@ -4609,7 +5472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>10</v>
       </c>
@@ -4620,7 +5483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>10</v>
       </c>
@@ -4631,7 +5494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>10</v>
       </c>
@@ -4642,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>10</v>
       </c>
@@ -4653,7 +5516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>10</v>
       </c>
@@ -4664,7 +5527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>10</v>
       </c>
@@ -4675,7 +5538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>10</v>
       </c>
@@ -4686,7 +5549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>10</v>
       </c>
@@ -4697,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>10</v>
       </c>
@@ -4708,7 +5571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>10</v>
       </c>
@@ -4719,7 +5582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>10</v>
       </c>
@@ -4730,7 +5593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>10</v>
       </c>
@@ -4741,7 +5604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>10</v>
       </c>
@@ -4752,7 +5615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>10</v>
       </c>
@@ -4763,7 +5626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>10</v>
       </c>
@@ -4774,7 +5637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>10</v>
       </c>
@@ -4785,7 +5648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>10</v>
       </c>
@@ -4796,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>10</v>
       </c>
@@ -4807,7 +5670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>10</v>
       </c>
@@ -4818,7 +5681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>10</v>
       </c>
@@ -4829,7 +5692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>11</v>
       </c>
@@ -4840,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>11</v>
       </c>
@@ -4851,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>11</v>
       </c>
@@ -4862,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>11</v>
       </c>
@@ -4873,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>11</v>
       </c>
@@ -4884,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>11</v>
       </c>
@@ -4895,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>11</v>
       </c>
@@ -4906,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>11</v>
       </c>
@@ -4917,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>11</v>
       </c>
@@ -4928,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>11</v>
       </c>
@@ -4939,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>11</v>
       </c>
@@ -4950,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>11</v>
       </c>
@@ -4961,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>11</v>
       </c>
@@ -4972,7 +5835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>11</v>
       </c>
@@ -4983,7 +5846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>11</v>
       </c>
@@ -4994,7 +5857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>11</v>
       </c>
@@ -5005,7 +5868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>11</v>
       </c>
@@ -5016,7 +5879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>11</v>
       </c>
@@ -5027,7 +5890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>11</v>
       </c>
@@ -5038,7 +5901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>11</v>
       </c>
@@ -5049,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>11</v>
       </c>
@@ -5060,7 +5923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>11</v>
       </c>
@@ -5071,7 +5934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>11</v>
       </c>
@@ -5082,7 +5945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>11</v>
       </c>
@@ -5093,7 +5956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>11</v>
       </c>
@@ -5104,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>11</v>
       </c>
@@ -5115,7 +5978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>11</v>
       </c>
@@ -5126,7 +5989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>11</v>
       </c>
@@ -5137,7 +6000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>11</v>
       </c>
@@ -5148,7 +6011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>11</v>
       </c>
@@ -5159,7 +6022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>11</v>
       </c>
@@ -5170,7 +6033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>11</v>
       </c>
@@ -5181,7 +6044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>11</v>
       </c>
@@ -5192,7 +6055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>11</v>
       </c>
@@ -5203,7 +6066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>11</v>
       </c>
@@ -5214,7 +6077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>11</v>
       </c>
@@ -5225,7 +6088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>12</v>
       </c>
@@ -5236,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>12</v>
       </c>
@@ -5247,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>12</v>
       </c>
@@ -5258,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>12</v>
       </c>
@@ -5269,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>12</v>
       </c>
@@ -5280,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>12</v>
       </c>
@@ -5291,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>12</v>
       </c>
@@ -5302,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>12</v>
       </c>
@@ -5313,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>12</v>
       </c>
@@ -5324,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>12</v>
       </c>
@@ -5335,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>12</v>
       </c>
@@ -5346,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>12</v>
       </c>
@@ -5357,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>12</v>
       </c>
@@ -5368,7 +6231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>12</v>
       </c>
@@ -5379,7 +6242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>12</v>
       </c>
@@ -5390,7 +6253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>12</v>
       </c>
@@ -5401,7 +6264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>12</v>
       </c>
@@ -5412,7 +6275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>12</v>
       </c>
@@ -5423,7 +6286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>12</v>
       </c>
@@ -5434,7 +6297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>12</v>
       </c>
@@ -5445,7 +6308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>12</v>
       </c>
@@ -5456,7 +6319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>12</v>
       </c>
@@ -5467,7 +6330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>12</v>
       </c>
@@ -5478,7 +6341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>12</v>
       </c>
@@ -5489,7 +6352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>12</v>
       </c>
@@ -5500,7 +6363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>12</v>
       </c>
@@ -5511,7 +6374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>12</v>
       </c>
@@ -5522,7 +6385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>12</v>
       </c>
@@ -5533,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>12</v>
       </c>
@@ -5544,7 +6407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>12</v>
       </c>
@@ -5555,7 +6418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>12</v>
       </c>
@@ -5566,7 +6429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>12</v>
       </c>
@@ -5577,7 +6440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>12</v>
       </c>
@@ -5588,7 +6451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>12</v>
       </c>
@@ -5599,7 +6462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>12</v>
       </c>
@@ -5610,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>12</v>
       </c>
@@ -5621,7 +6484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>13</v>
       </c>
@@ -5632,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>13</v>
       </c>
@@ -5643,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>13</v>
       </c>
@@ -5654,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>13</v>
       </c>
@@ -5665,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>13</v>
       </c>
@@ -5676,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>13</v>
       </c>
@@ -5687,7 +6550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>13</v>
       </c>
@@ -5698,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>13</v>
       </c>
@@ -5709,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>13</v>
       </c>
@@ -5720,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>13</v>
       </c>
@@ -5731,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>13</v>
       </c>
@@ -5742,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>13</v>
       </c>
@@ -5753,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>13</v>
       </c>
@@ -5764,7 +6627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>13</v>
       </c>
@@ -5775,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>13</v>
       </c>
@@ -5786,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>13</v>
       </c>
@@ -5797,7 +6660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>13</v>
       </c>
@@ -5808,7 +6671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>13</v>
       </c>
@@ -5819,7 +6682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>13</v>
       </c>
@@ -5830,7 +6693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>13</v>
       </c>
@@ -5841,7 +6704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>13</v>
       </c>
@@ -5852,7 +6715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>13</v>
       </c>
@@ -5863,7 +6726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>13</v>
       </c>
@@ -5874,7 +6737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>13</v>
       </c>
@@ -5885,7 +6748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>13</v>
       </c>
@@ -5896,7 +6759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>13</v>
       </c>
@@ -5907,7 +6770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>13</v>
       </c>
@@ -5918,7 +6781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>13</v>
       </c>
@@ -5929,7 +6792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>13</v>
       </c>
@@ -5940,7 +6803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>13</v>
       </c>
@@ -5951,7 +6814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>13</v>
       </c>
@@ -5962,7 +6825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>13</v>
       </c>
@@ -5973,7 +6836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>13</v>
       </c>
@@ -5984,7 +6847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>13</v>
       </c>
@@ -5995,7 +6858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>13</v>
       </c>
@@ -6006,7 +6869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>13</v>
       </c>
@@ -6020,370 +6883,6 @@
   </sheetData>
   <autoFilter ref="A1:C469"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>15</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>22</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>24</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>26</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>27</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>28</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>29</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>30</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>31</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>32</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>33</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>34</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>35</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>36</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>41</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>37</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>40</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6395,1019 +6894,1019 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>4</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>5</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>6</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>3</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>2</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>3</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>3</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>5</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>3</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>6</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>7</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>4</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>1</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>4</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>2</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>4</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>3</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>4</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>4</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>4</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>5</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>4</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>6</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>4</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>7</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>5</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>5</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>2</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>5</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>3</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>5</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>4</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>5</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>5</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>5</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>6</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>5</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>7</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>6</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>1</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>6</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>2</v>
       </c>
       <c r="C38" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>6</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>3</v>
       </c>
       <c r="C39" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>6</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>4</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>6</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>5</v>
       </c>
       <c r="C41" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>6</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>6</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>6</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>7</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>7</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>1</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>7</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>2</v>
       </c>
       <c r="C45" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>7</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>3</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>7</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>4</v>
       </c>
       <c r="C47" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>7</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>5</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>7</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>6</v>
       </c>
       <c r="C49" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>7</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>7</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>8</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>1</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>8</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>2</v>
       </c>
       <c r="C52" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>8</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>3</v>
       </c>
       <c r="C53" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>8</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>4</v>
       </c>
       <c r="C54" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>8</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>5</v>
       </c>
       <c r="C55" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>8</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>6</v>
       </c>
       <c r="C56" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>8</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>7</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>9</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>1</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>9</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>2</v>
       </c>
       <c r="C59" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>9</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>9</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>4</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>9</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>5</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>9</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>6</v>
       </c>
       <c r="C63" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>9</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>7</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>10</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>10</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>2</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>10</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>3</v>
       </c>
       <c r="C67" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>10</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>4</v>
       </c>
       <c r="C68" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>10</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>5</v>
       </c>
       <c r="C69" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>10</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>6</v>
       </c>
       <c r="C70" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>10</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>7</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>11</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>1</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>11</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <v>2</v>
       </c>
       <c r="C73" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>11</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <v>3</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>11</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>4</v>
       </c>
       <c r="C75" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>11</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>11</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="4">
         <v>6</v>
       </c>
       <c r="C77" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>11</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="4">
         <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>12</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="4">
         <v>1</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>12</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="4">
         <v>2</v>
       </c>
       <c r="C80" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>12</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>3</v>
       </c>
       <c r="C81" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>12</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>12</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>5</v>
       </c>
       <c r="C83" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>12</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>6</v>
       </c>
       <c r="C84" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>12</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <v>7</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>13</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>1</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>13</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>13</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="4">
         <v>3</v>
       </c>
       <c r="C88" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>13</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="4">
         <v>4</v>
       </c>
       <c r="C89" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>13</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="4">
         <v>5</v>
       </c>
       <c r="C90" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>13</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>6</v>
       </c>
       <c r="C91" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>13</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="4">
         <v>7</v>
       </c>
       <c r="C92" s="1">
@@ -7427,568 +7926,568 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D22" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D25" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D26" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
@@ -7998,4 +8497,1409 @@
   <autoFilter ref="A1:D40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ40"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="8.26953125" style="2" customWidth="1"/>
+    <col min="19" max="27" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="54" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="8.26953125" style="2" customWidth="1"/>
+    <col min="57" max="57" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BL39"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.26953125" style="2" customWidth="1"/>
+    <col min="21" max="29" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="56" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="8.26953125" style="2" customWidth="1"/>
+    <col min="59" max="59" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>